--- a/InputData/trans/TTLE/Transportation Technology Logit Exponents.xlsx
+++ b/InputData/trans/TTLE/Transportation Technology Logit Exponents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junshepard/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/template_state/trans/TTLE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/IN/trans/TTLE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF038AB-6E90-6345-83FC-B41548C707B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D5A6EA4-04A0-F746-B240-C547E134D528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ships</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Logit exponent</t>
   </si>
   <si>
-    <t>None needed.  Handled through calibration.</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -92,6 +89,27 @@
   </si>
   <si>
     <t>https://jgcri.github.io/gcam-doc/choice.html</t>
+  </si>
+  <si>
+    <t>Table 5 Generalized Cost Coefficient Calibration</t>
+  </si>
+  <si>
+    <t>United States EPA</t>
+  </si>
+  <si>
+    <t>Consumer Vehicle Choice Model Documentation</t>
+  </si>
+  <si>
+    <t>https://nepis.epa.gov/Exe/ZyPDF.cgi/P100EZ37.PDF?Dockey=P100EZ37.PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We choose a value of -3 for passenger vehicles and a value of -5 for other vehicle types, </t>
+  </si>
+  <si>
+    <t>based on the ranges in Table 5 of the cited EPA documentation.</t>
+  </si>
+  <si>
+    <t>Indiana</t>
   </si>
 </sst>
 </file>
@@ -767,7 +785,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -779,6 +797,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="60">
@@ -1207,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1222,8 +1243,11 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7">
-        <v>44308</v>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8">
+        <v>44631</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1231,117 +1255,131 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>16</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:3">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2">
+    <row r="16" spans="1:3" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1"/>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2" s="2" customFormat="1"/>
-    <row r="24" spans="2:2" s="2" customFormat="1"/>
-    <row r="25" spans="2:2" s="2" customFormat="1"/>
-    <row r="26" spans="2:2" s="2" customFormat="1"/>
-    <row r="27" spans="2:2" s="2" customFormat="1"/>
-    <row r="28" spans="2:2" s="2" customFormat="1"/>
-    <row r="29" spans="2:2">
+    <row r="23" spans="1:2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2"/>
-    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1"/>
+    <row r="31" spans="1:2" s="2" customFormat="1"/>
+    <row r="32" spans="1:2" s="2" customFormat="1"/>
+    <row r="33" spans="2:2" s="2" customFormat="1"/>
+    <row r="34" spans="2:2" s="2" customFormat="1"/>
+    <row r="35" spans="2:2" s="2" customFormat="1"/>
     <row r="36" spans="2:2">
       <c r="B36" s="2"/>
     </row>
@@ -1388,7 +1426,6 @@
       <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1"/>
       <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2">
@@ -1410,6 +1447,7 @@
       <c r="B57" s="2"/>
     </row>
     <row r="58" spans="1:2">
+      <c r="A58" s="1"/>
       <c r="B58" s="2"/>
     </row>
     <row r="59" spans="1:2">
@@ -1423,6 +1461,27 @@
     </row>
     <row r="62" spans="1:2">
       <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1437,7 +1496,9 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -1461,11 +1522,11 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>-3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>-3</v>
+      <c r="B2" s="2">
+        <v>-5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1473,10 +1534,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>-3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-3</v>
+        <v>-5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1484,10 +1545,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>-3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-3</v>
+        <v>-5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1495,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>-3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-3</v>
+        <v>-5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1506,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="4">
-        <v>-3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-3</v>
+        <v>-5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1517,10 +1578,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>-3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>-3</v>
+        <v>-5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-5</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/TTLE/Transportation Technology Logit Exponents.xlsx
+++ b/InputData/trans/TTLE/Transportation Technology Logit Exponents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\IN\trans\TTLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\TTLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55837350-DA7C-4EFF-AB81-D16D71662EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CC5EDA-16E8-45C6-851B-8000B937503F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="915" windowWidth="19560" windowHeight="17085" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31365" yWindow="2355" windowWidth="21585" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>ships</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>For more on this, see the "Unmodified Logit" equation description at:</t>
-  </si>
-  <si>
-    <t>Indiana</t>
   </si>
 </sst>
 </file>
@@ -250,7 +247,7 @@
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
     <numFmt numFmtId="165" formatCode="#,##0_)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,7 +912,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -924,7 +921,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - Accent1" xfId="33" builtinId="30" customBuiltin="1"/>
@@ -1318,29 +1314,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="4">
-        <v>45310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1348,57 +1338,57 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="1"/>
     </row>
   </sheetData>
@@ -1415,44 +1405,44 @@
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1469,7 +1459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +1473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1497,7 +1487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1514,7 +1504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1531,7 +1521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1548,7 +1538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1565,7 +1555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1579,7 +1569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1593,7 +1583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1607,7 +1597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1624,7 +1614,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1638,7 +1628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1655,7 +1645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1672,7 +1662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1689,7 +1679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1706,7 +1696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1723,7 +1713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1737,12 +1727,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1756,7 +1746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1770,7 +1760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1784,7 +1774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1798,7 +1788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1812,7 +1802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1839,17 +1829,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1860,7 +1850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1868,10 +1858,10 @@
         <v>-80</v>
       </c>
       <c r="C2">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1882,7 +1872,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1893,7 +1883,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1904,7 +1894,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1905,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
